--- a/DownloadCSV/statement.xlsx
+++ b/DownloadCSV/statement.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>invoiceNumber</t>
   </si>
@@ -56,136 +56,562 @@
     <t>overDue</t>
   </si>
   <si>
-    <t>0005686208-003</t>
-  </si>
-  <si>
-    <t>MAL3320</t>
+    <t>0006970422-002</t>
+  </si>
+  <si>
+    <t>2022-06-22T00:00:00</t>
+  </si>
+  <si>
+    <t>Unpaid</t>
+  </si>
+  <si>
+    <t>2022-07-22T00:00:00</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0007038617-001</t>
+  </si>
+  <si>
+    <t>2022-06-20T00:00:00</t>
+  </si>
+  <si>
+    <t>add to open</t>
+  </si>
+  <si>
+    <t>2022-07-20T00:00:00</t>
+  </si>
+  <si>
+    <t>0007024766-001</t>
   </si>
   <si>
     <t>2022-06-17T00:00:00</t>
   </si>
   <si>
-    <t>Unpaid</t>
-  </si>
-  <si>
-    <t>731 Stock</t>
-  </si>
-  <si>
     <t>2022-07-17T00:00:00</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0005686182-003</t>
-  </si>
-  <si>
-    <t>2,695.29</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>0005533342-001</t>
-  </si>
-  <si>
-    <t>VENTURI RETURN</t>
-  </si>
-  <si>
-    <t>0006960679-001</t>
+    <t>0007018134-001</t>
+  </si>
+  <si>
+    <t>0007017944-001</t>
+  </si>
+  <si>
+    <t>0006993422-001</t>
+  </si>
+  <si>
+    <t>2022-06-16T00:00:00</t>
+  </si>
+  <si>
+    <t>3,829.24</t>
+  </si>
+  <si>
+    <t>2022-07-16T00:00:00</t>
+  </si>
+  <si>
+    <t>0006985465-001</t>
+  </si>
+  <si>
+    <t>320 CARTS</t>
+  </si>
+  <si>
+    <t>0006985062-001</t>
+  </si>
+  <si>
+    <t>2022-06-15T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-15T00:00:00</t>
+  </si>
+  <si>
+    <t>0006947918-002</t>
+  </si>
+  <si>
+    <t>0006970422-001</t>
   </si>
   <si>
     <t>2022-06-14T00:00:00</t>
   </si>
   <si>
-    <t>20,600.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOCK HEATERS </t>
-  </si>
-  <si>
     <t>2022-07-14T00:00:00</t>
   </si>
   <si>
-    <t>0006914556-001</t>
-  </si>
-  <si>
-    <t>MacLamore</t>
-  </si>
-  <si>
-    <t>0006919817-001</t>
+    <t>0006947918-001</t>
+  </si>
+  <si>
+    <t>2022-06-13T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-13T00:00:00</t>
+  </si>
+  <si>
+    <t>0006908271-001</t>
+  </si>
+  <si>
+    <t>2022-06-09T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-09T00:00:00</t>
+  </si>
+  <si>
+    <t>0006892973-001</t>
+  </si>
+  <si>
+    <t>1,076.16</t>
+  </si>
+  <si>
+    <t>0006431488-001</t>
+  </si>
+  <si>
+    <t>1,162.00</t>
+  </si>
+  <si>
+    <t>REMINGTON FABRIC</t>
+  </si>
+  <si>
+    <t>0006868665-001</t>
+  </si>
+  <si>
+    <t>2022-06-08T00:00:00</t>
+  </si>
+  <si>
+    <t>COUPLINGS</t>
+  </si>
+  <si>
+    <t>2022-07-08T00:00:00</t>
+  </si>
+  <si>
+    <t>0006835141-001</t>
+  </si>
+  <si>
+    <t>1,276.60</t>
+  </si>
+  <si>
+    <t>BASKETBALL</t>
+  </si>
+  <si>
+    <t>0006831908-001</t>
+  </si>
+  <si>
+    <t>4,578.00</t>
+  </si>
+  <si>
+    <t>0006748242-001</t>
+  </si>
+  <si>
+    <t>5,873.78</t>
+  </si>
+  <si>
+    <t>SALT CELLS</t>
+  </si>
+  <si>
+    <t>0006052236-002</t>
+  </si>
+  <si>
+    <t>7042 PT1</t>
+  </si>
+  <si>
+    <t>0005978141-002</t>
+  </si>
+  <si>
+    <t>0005842832-001</t>
+  </si>
+  <si>
+    <t>CAL HYPO</t>
+  </si>
+  <si>
+    <t>0005668394-001</t>
+  </si>
+  <si>
+    <t>1,175.00</t>
+  </si>
+  <si>
+    <t>REMINGTON SAFETY</t>
+  </si>
+  <si>
+    <t>0006859229-001</t>
+  </si>
+  <si>
+    <t>2022-06-06T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-06T00:00:00</t>
+  </si>
+  <si>
+    <t>0006808372-001</t>
+  </si>
+  <si>
+    <t>2022-06-03T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-03T00:00:00</t>
+  </si>
+  <si>
+    <t>0006819903-001</t>
+  </si>
+  <si>
+    <t>2022-06-02T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-02T00:00:00</t>
+  </si>
+  <si>
+    <t>0006817065-001</t>
+  </si>
+  <si>
+    <t>0006794353-001</t>
+  </si>
+  <si>
+    <t>2022-06-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-07-01T00:00:00</t>
+  </si>
+  <si>
+    <t>0006762764-001</t>
+  </si>
+  <si>
+    <t>2022-05-27T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-26T00:00:00</t>
+  </si>
+  <si>
+    <t>0006744565-001</t>
+  </si>
+  <si>
+    <t>2022-05-26T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-25T00:00:00</t>
+  </si>
+  <si>
+    <t>0006735287-001</t>
+  </si>
+  <si>
+    <t>0006728675-001</t>
+  </si>
+  <si>
+    <t>2022-05-25T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-24T00:00:00</t>
+  </si>
+  <si>
+    <t>0006718284-001</t>
+  </si>
+  <si>
+    <t>0006706317-001</t>
+  </si>
+  <si>
+    <t>2022-05-24T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-23T00:00:00</t>
+  </si>
+  <si>
+    <t>0006052642-001</t>
+  </si>
+  <si>
+    <t>36,597.42</t>
+  </si>
+  <si>
+    <t>7042 PT2</t>
+  </si>
+  <si>
+    <t>0005978141-003</t>
+  </si>
+  <si>
+    <t>0006683106-001</t>
+  </si>
+  <si>
+    <t>2022-05-23T00:00:00</t>
+  </si>
+  <si>
+    <t>Past Due</t>
+  </si>
+  <si>
+    <t>AHUJA</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0006540169-002</t>
+  </si>
+  <si>
+    <t>0006644025-001</t>
+  </si>
+  <si>
+    <t>2022-05-19T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-18T00:00:00</t>
+  </si>
+  <si>
+    <t>0006639460-001</t>
+  </si>
+  <si>
+    <t>4,828.50</t>
+  </si>
+  <si>
+    <t>0006625502-001</t>
+  </si>
+  <si>
+    <t>2022-05-18T00:00:00</t>
+  </si>
+  <si>
+    <t>0006386951-002</t>
+  </si>
+  <si>
+    <t>0006616993-001</t>
+  </si>
+  <si>
+    <t>2022-05-17T00:00:00</t>
+  </si>
+  <si>
+    <t>0006601915-001</t>
+  </si>
+  <si>
+    <t>2022-05-16T00:00:00</t>
+  </si>
+  <si>
+    <t>0006572490-001</t>
+  </si>
+  <si>
+    <t>2022-05-13T00:00:00</t>
+  </si>
+  <si>
+    <t>2,250.72</t>
+  </si>
+  <si>
+    <t>2022-06-12T00:00:00</t>
+  </si>
+  <si>
+    <t>0006559927-001</t>
+  </si>
+  <si>
+    <t>2022-05-12T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-11T00:00:00</t>
+  </si>
+  <si>
+    <t>0006555740-001</t>
+  </si>
+  <si>
+    <t>0006540169-001</t>
+  </si>
+  <si>
+    <t>2022-05-11T00:00:00</t>
   </si>
   <si>
     <t>2022-06-10T00:00:00</t>
   </si>
   <si>
-    <t>1,062.26</t>
-  </si>
-  <si>
-    <t>Mullen</t>
-  </si>
-  <si>
-    <t>2022-07-10T00:00:00</t>
-  </si>
-  <si>
-    <t>0006902692-001</t>
-  </si>
-  <si>
-    <t>2022-06-09T00:00:00</t>
-  </si>
-  <si>
-    <t>1,316.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMICALS </t>
-  </si>
-  <si>
-    <t>2022-07-09T00:00:00</t>
-  </si>
-  <si>
-    <t>0006881152-001</t>
-  </si>
-  <si>
-    <t>2022-06-07T00:00:00</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>2022-07-07T00:00:00</t>
-  </si>
-  <si>
-    <t>0006881058-001</t>
-  </si>
-  <si>
-    <t>1,800.93</t>
-  </si>
-  <si>
-    <t>voyd</t>
-  </si>
-  <si>
-    <t>0006809077-001</t>
-  </si>
-  <si>
-    <t>2022-06-02T00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-02T00:00:00</t>
-  </si>
-  <si>
-    <t>0006792676-001</t>
-  </si>
-  <si>
-    <t>2022-06-01T00:00:00</t>
-  </si>
-  <si>
-    <t>2,452.61</t>
-  </si>
-  <si>
-    <t>Kuntzman</t>
-  </si>
-  <si>
-    <t>2022-07-01T00:00:00</t>
+    <t>0006505155-001</t>
+  </si>
+  <si>
+    <t>2022-05-09T00:00:00</t>
+  </si>
+  <si>
+    <t>0006445079-002</t>
+  </si>
+  <si>
+    <t>0006327488-001</t>
+  </si>
+  <si>
+    <t>VERBAL LUIS</t>
+  </si>
+  <si>
+    <t>0006483062-001</t>
+  </si>
+  <si>
+    <t>2022-05-06T00:00:00</t>
+  </si>
+  <si>
+    <t>2,265.48</t>
+  </si>
+  <si>
+    <t>2022-06-05T00:00:00</t>
+  </si>
+  <si>
+    <t>0006477107-001</t>
+  </si>
+  <si>
+    <t>0006445079-001</t>
+  </si>
+  <si>
+    <t>2022-05-04T00:00:00</t>
+  </si>
+  <si>
+    <t>0006272900-002</t>
+  </si>
+  <si>
+    <t>2022-05-02T00:00:00</t>
+  </si>
+  <si>
+    <t>0006387215-001</t>
+  </si>
+  <si>
+    <t>2022-04-29T00:00:00</t>
+  </si>
+  <si>
+    <t>1,925.40</t>
+  </si>
+  <si>
+    <t>2022-05-29T00:00:00</t>
+  </si>
+  <si>
+    <t>0006386951-001</t>
+  </si>
+  <si>
+    <t>0006384019-001</t>
+  </si>
+  <si>
+    <t>0006338025-001</t>
+  </si>
+  <si>
+    <t>2022-04-26T00:00:00</t>
+  </si>
+  <si>
+    <t>LEPENE SPA COVER</t>
+  </si>
+  <si>
+    <t>0006333856-001</t>
+  </si>
+  <si>
+    <t>0005928415-001</t>
+  </si>
+  <si>
+    <t>2022-04-25T00:00:00</t>
+  </si>
+  <si>
+    <t>1,010.00</t>
+  </si>
+  <si>
+    <t>0006301175-001</t>
+  </si>
+  <si>
+    <t>2022-04-22T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-22T00:00:00</t>
+  </si>
+  <si>
+    <t>0006242672-001</t>
+  </si>
+  <si>
+    <t>0006272900-001</t>
+  </si>
+  <si>
+    <t>2022-04-20T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-20T00:00:00</t>
+  </si>
+  <si>
+    <t>0006272858-001</t>
+  </si>
+  <si>
+    <t>0006216634-001</t>
+  </si>
+  <si>
+    <t>2022-04-15T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-15T00:00:00</t>
+  </si>
+  <si>
+    <t>0006193156-001</t>
+  </si>
+  <si>
+    <t>2022-04-13T00:00:00</t>
+  </si>
+  <si>
+    <t>0006175295-001</t>
+  </si>
+  <si>
+    <t>2022-04-12T00:00:00</t>
+  </si>
+  <si>
+    <t>0006140501-001</t>
+  </si>
+  <si>
+    <t>2022-04-08T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-05-08T00:00:00</t>
+  </si>
+  <si>
+    <t>0006094221-002</t>
+  </si>
+  <si>
+    <t>hargas</t>
+  </si>
+  <si>
+    <t>0005803204-003</t>
+  </si>
+  <si>
+    <t>2022-04-06T00:00:00</t>
+  </si>
+  <si>
+    <t>0006067235-001</t>
+  </si>
+  <si>
+    <t>2022-04-05T00:00:00</t>
+  </si>
+  <si>
+    <t>2,819.01</t>
+  </si>
+  <si>
+    <t>2022-05-05T00:00:00</t>
+  </si>
+  <si>
+    <t>0006052236-001</t>
+  </si>
+  <si>
+    <t>42,043.93</t>
+  </si>
+  <si>
+    <t>0006087530-001</t>
+  </si>
+  <si>
+    <t>2022-04-04T00:00:00</t>
+  </si>
+  <si>
+    <t>0006047745-001</t>
+  </si>
+  <si>
+    <t>2022-03-30T00:00:00</t>
+  </si>
+  <si>
+    <t>0006016414-001</t>
+  </si>
+  <si>
+    <t>2022-03-25T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-04-24T00:00:00</t>
+  </si>
+  <si>
+    <t>0005804045-001</t>
+  </si>
+  <si>
+    <t>10,377.00</t>
+  </si>
+  <si>
+    <t>Poly Direct</t>
+  </si>
+  <si>
+    <t>0005803204-001</t>
+  </si>
+  <si>
+    <t>2022-03-18T00:00:00</t>
+  </si>
+  <si>
+    <t>72,128.22</t>
   </si>
 </sst>
 </file>
@@ -524,7 +950,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,119 +1004,107 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>5686208</v>
+        <v>6970422</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>108874</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>843.7</v>
+      </c>
+      <c r="G2">
+        <v>10.0</v>
+      </c>
+      <c r="I2">
+        <v>853.7</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>273.45</v>
-      </c>
-      <c r="G2">
-        <v>25.0</v>
-      </c>
-      <c r="H2">
-        <v>27.6</v>
-      </c>
-      <c r="I2">
-        <v>326.05</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2">
+        <v>4320</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>7038617</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>108874</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>159.58</v>
+      </c>
+      <c r="I3">
+        <v>159.58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>5686182</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="H3">
-        <v>249.31</v>
-      </c>
-      <c r="I3">
-        <v>2944.6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>7024766</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>108874</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>5533342</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>351.68</v>
+      </c>
+      <c r="I4">
+        <v>351.68</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>75.86</v>
-      </c>
-      <c r="G4">
-        <v>10.0</v>
-      </c>
-      <c r="H4">
-        <v>7.95</v>
-      </c>
-      <c r="I4">
-        <v>93.81</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>4357</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -698,306 +1112,2610 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>6960679</v>
+        <v>7018134</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
+      <c r="D5">
+        <v>108874</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>25.0</v>
-      </c>
-      <c r="H5">
-        <v>1946.81</v>
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>127.94</v>
       </c>
       <c r="I5">
-        <v>22571.81</v>
+        <v>127.94</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>4349</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>6914556</v>
+        <v>7017944</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="D6">
+        <v>108874</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>97.21</v>
-      </c>
-      <c r="H6">
-        <v>8.98</v>
+        <v>249.4</v>
       </c>
       <c r="I6">
-        <v>106.19</v>
+        <v>249.4</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>4332</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>6919817</v>
+        <v>6993422</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="D7">
+        <v>108874</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>98.26</v>
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>20.0</v>
       </c>
       <c r="I7">
-        <v>1160.52</v>
+        <v>3849.24</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>4334</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>6902692</v>
+        <v>6985465</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
+      <c r="D8">
+        <v>108874</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8">
-        <v>121.79</v>
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>193.36</v>
       </c>
       <c r="I8">
-        <v>1438.3</v>
+        <v>193.36</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>6881152</v>
+        <v>6985062</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
+      <c r="D9">
+        <v>108874</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>424.4</v>
-      </c>
-      <c r="H9">
-        <v>39.26</v>
+        <v>649.6</v>
       </c>
       <c r="I9">
-        <v>463.66</v>
+        <v>649.6</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>4332</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>6881058</v>
+        <v>6947918</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>108874</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <v>166.59</v>
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>2.88</v>
       </c>
       <c r="I10">
-        <v>1967.52</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>4188</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>6809077</v>
+        <v>6970422</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
+      <c r="D11">
+        <v>108874</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>675.32</v>
-      </c>
-      <c r="H11">
-        <v>62.47</v>
+        <v>148.2</v>
       </c>
       <c r="I11">
-        <v>737.79</v>
+        <v>148.2</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>4320</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>6947918</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>108874</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>60.44</v>
+      </c>
+      <c r="I12">
+        <v>60.44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>4188</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>6908271</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>108874</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>161.24</v>
+      </c>
+      <c r="I13">
+        <v>161.24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>4211</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>6892973</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>108874</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>1076.16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>7042</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>6431488</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>108874</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>113.0</v>
+      </c>
+      <c r="I15">
+        <v>1275.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>6868665</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>108874</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="B12">
-        <v>6792676</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F16">
+        <v>234.47</v>
+      </c>
+      <c r="I16">
+        <v>234.47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>6835141</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>108874</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>1276.6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>6831908</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>108874</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18">
+        <v>4578.0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>4130</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>6748242</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>108874</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19">
+        <v>5873.78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>6052236</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>108874</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>260.28</v>
+      </c>
+      <c r="I20">
+        <v>260.28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>5978141</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>108874</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>52.06</v>
+      </c>
+      <c r="I21">
+        <v>52.06</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>3421</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>5842832</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>108874</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <v>156.17</v>
+      </c>
+      <c r="I22">
+        <v>156.17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>5668394</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>108874</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23">
+        <v>35.0</v>
+      </c>
+      <c r="I23">
+        <v>1210.0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>6859229</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>108874</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24">
+        <v>100.3</v>
+      </c>
+      <c r="I24">
+        <v>100.3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>4158</v>
+      </c>
+      <c r="L24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>6808372</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>108874</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <v>408.8</v>
+      </c>
+      <c r="I25">
+        <v>408.8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>4788</v>
+      </c>
+      <c r="L25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>6819903</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>108874</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26">
+        <v>440.22</v>
+      </c>
+      <c r="I26">
+        <v>440.22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <v>4118</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>6817065</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>108874</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27">
+        <v>452.2</v>
+      </c>
+      <c r="I27">
+        <v>452.2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>4118</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>6794353</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>108874</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>179.7</v>
+      </c>
+      <c r="I28">
+        <v>179.7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>4102</v>
+      </c>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>6762764</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>108874</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>546.0</v>
+      </c>
+      <c r="I29">
+        <v>546.0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>4008</v>
+      </c>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30">
+        <v>6744565</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>108874</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30">
+        <v>160.46</v>
+      </c>
+      <c r="I30">
+        <v>160.46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>4040</v>
+      </c>
+      <c r="L30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>6735287</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>108874</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31">
+        <v>98.25</v>
+      </c>
+      <c r="I31">
+        <v>98.25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>4034</v>
+      </c>
+      <c r="L31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32">
+        <v>6728675</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>108874</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32">
+        <v>1.75</v>
+      </c>
+      <c r="I32">
+        <v>1.75</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>4021</v>
+      </c>
+      <c r="L32" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <v>6718284</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>108874</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>546.0</v>
+      </c>
+      <c r="I33">
+        <v>716.75</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <v>4008</v>
+      </c>
+      <c r="L33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>6706317</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>108874</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>76.16</v>
+      </c>
+      <c r="I34">
+        <v>76.16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>3990</v>
+      </c>
+      <c r="L34" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35">
+        <v>6052642</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>108874</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35">
+        <v>36597.46</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36">
+        <v>5978141</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>108874</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>61.18</v>
+      </c>
+      <c r="G36">
+        <v>71.0</v>
+      </c>
+      <c r="I36">
+        <v>132.18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>3421</v>
+      </c>
+      <c r="L36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37">
+        <v>6683106</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>108874</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37">
+        <v>269.02</v>
+      </c>
+      <c r="I37">
+        <v>269.02</v>
+      </c>
+      <c r="J37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12">
-        <v>226.86</v>
-      </c>
-      <c r="I12">
-        <v>2679.47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
+      <c r="M37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <v>6540169</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>108874</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38">
+        <v>214.6</v>
+      </c>
+      <c r="I38">
+        <v>214.6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38">
+        <v>3829</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39">
+        <v>6644025</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>108874</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39">
+        <v>510.9</v>
+      </c>
+      <c r="I39">
+        <v>510.9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39">
+        <v>3943</v>
+      </c>
+      <c r="L39" t="s">
+        <v>110</v>
+      </c>
+      <c r="M39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40">
+        <v>6639460</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>108874</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40">
+        <v>4828.5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40">
+        <v>3940</v>
+      </c>
+      <c r="L40" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>6625502</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>108874</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41">
+        <v>474.58</v>
+      </c>
+      <c r="I41">
+        <v>474.58</v>
+      </c>
+      <c r="J41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41">
+        <v>3930</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>6386951</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>108874</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42">
+        <v>115.16</v>
+      </c>
+      <c r="I42">
+        <v>115.16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42">
+        <v>3709</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43">
+        <v>6616993</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>108874</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43">
+        <v>399.0</v>
+      </c>
+      <c r="I43">
+        <v>399.0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43">
+        <v>3917</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44">
+        <v>6601915</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>108874</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44">
+        <v>173.42</v>
+      </c>
+      <c r="I44">
+        <v>173.42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44">
+        <v>3904</v>
+      </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45">
+        <v>6572490</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>108874</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45">
+        <v>2250.72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45">
+        <v>4332</v>
+      </c>
+      <c r="L45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46">
+        <v>6559927</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>108874</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46">
+        <v>370.04</v>
+      </c>
+      <c r="I46">
+        <v>370.04</v>
+      </c>
+      <c r="J46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46">
+        <v>2323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47">
+        <v>6555740</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>108874</v>
+      </c>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47">
+        <v>218.4</v>
+      </c>
+      <c r="I47">
+        <v>218.4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47">
+        <v>3841</v>
+      </c>
+      <c r="L47" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>6540169</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>108874</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48">
+        <v>251.72</v>
+      </c>
+      <c r="I48">
+        <v>251.72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48">
+        <v>3829</v>
+      </c>
+      <c r="L48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49">
+        <v>6505155</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>108874</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49">
+        <v>12.78</v>
+      </c>
+      <c r="I49">
+        <v>12.78</v>
+      </c>
+      <c r="J49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49">
+        <v>3790</v>
+      </c>
+      <c r="L49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50">
+        <v>6445079</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>108874</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50">
+        <v>3.08</v>
+      </c>
+      <c r="I50">
+        <v>3.08</v>
+      </c>
+      <c r="J50" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50">
+        <v>3748</v>
+      </c>
+      <c r="L50" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51">
+        <v>6327488</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>108874</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51">
+        <v>162.98</v>
+      </c>
+      <c r="I51">
+        <v>162.98</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51" t="s">
+        <v>135</v>
+      </c>
+      <c r="L51" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52">
+        <v>6483062</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>108874</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52">
+        <v>2265.48</v>
+      </c>
+      <c r="J52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52">
+        <v>3767</v>
+      </c>
+      <c r="L52" t="s">
+        <v>139</v>
+      </c>
+      <c r="M52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53">
+        <v>6477107</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>108874</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53">
+        <v>153.38</v>
+      </c>
+      <c r="I53">
+        <v>153.38</v>
+      </c>
+      <c r="J53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53">
+        <v>3769</v>
+      </c>
+      <c r="L53" t="s">
+        <v>139</v>
+      </c>
+      <c r="M53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54">
+        <v>6445079</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>108874</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54">
+        <v>103.28</v>
+      </c>
+      <c r="I54">
+        <v>103.28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54">
+        <v>3748</v>
+      </c>
+      <c r="L54" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55">
+        <v>6272900</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>108874</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55">
+        <v>825.6</v>
+      </c>
+      <c r="I55">
+        <v>825.6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>104</v>
+      </c>
+      <c r="K55">
+        <v>3610</v>
+      </c>
+      <c r="L55" t="s">
+        <v>82</v>
+      </c>
+      <c r="M55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56">
+        <v>6387215</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>108874</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+      <c r="I56">
+        <v>1925.4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56">
+        <v>3710</v>
+      </c>
+      <c r="L56" t="s">
+        <v>148</v>
+      </c>
+      <c r="M56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57">
+        <v>6386951</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>108874</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57">
+        <v>182.94</v>
+      </c>
+      <c r="I57">
+        <v>182.94</v>
+      </c>
+      <c r="J57" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57">
+        <v>3709</v>
+      </c>
+      <c r="L57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58">
+        <v>6384019</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>108874</v>
+      </c>
+      <c r="E58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58">
+        <v>91.99</v>
+      </c>
+      <c r="I58">
+        <v>91.99</v>
+      </c>
+      <c r="J58" t="s">
+        <v>104</v>
+      </c>
+      <c r="K58">
+        <v>3708</v>
+      </c>
+      <c r="L58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59">
+        <v>6338025</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>108874</v>
+      </c>
+      <c r="E59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59">
+        <v>0.0</v>
+      </c>
+      <c r="G59">
+        <v>201.47</v>
+      </c>
+      <c r="I59">
+        <v>201.47</v>
+      </c>
+      <c r="J59" t="s">
+        <v>104</v>
+      </c>
+      <c r="K59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60">
+        <v>6333856</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>108874</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60">
+        <v>352.21</v>
+      </c>
+      <c r="I60">
+        <v>352.21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+      <c r="K60">
+        <v>3671</v>
+      </c>
+      <c r="L60" t="s">
+        <v>88</v>
+      </c>
+      <c r="M60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61">
+        <v>5928415</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>108874</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61">
+        <v>200.0</v>
+      </c>
+      <c r="I61">
+        <v>1210.0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>104</v>
+      </c>
+      <c r="K61" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" t="s">
+        <v>92</v>
+      </c>
+      <c r="M61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62">
+        <v>6301175</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>108874</v>
+      </c>
+      <c r="E62" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62">
+        <v>210.06</v>
+      </c>
+      <c r="I62">
+        <v>210.06</v>
+      </c>
+      <c r="J62" t="s">
+        <v>104</v>
+      </c>
+      <c r="K62">
+        <v>3651</v>
+      </c>
+      <c r="L62" t="s">
+        <v>160</v>
+      </c>
+      <c r="M62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63">
+        <v>6242672</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>108874</v>
+      </c>
+      <c r="E63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63">
+        <v>231.2</v>
+      </c>
+      <c r="I63">
+        <v>231.2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>104</v>
+      </c>
+      <c r="K63">
+        <v>3569</v>
+      </c>
+      <c r="L63" t="s">
+        <v>160</v>
+      </c>
+      <c r="M63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64">
+        <v>6272900</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>108874</v>
+      </c>
+      <c r="E64" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64">
+        <v>552.58</v>
+      </c>
+      <c r="I64">
+        <v>552.58</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+      <c r="K64">
+        <v>3610</v>
+      </c>
+      <c r="L64" t="s">
+        <v>164</v>
+      </c>
+      <c r="M64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65">
+        <v>6272858</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>108874</v>
+      </c>
+      <c r="E65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65">
+        <v>58.65</v>
+      </c>
+      <c r="I65">
+        <v>58.65</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+      <c r="K65">
+        <v>3608</v>
+      </c>
+      <c r="L65" t="s">
+        <v>164</v>
+      </c>
+      <c r="M65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66">
+        <v>6216634</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>108874</v>
+      </c>
+      <c r="E66" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66">
+        <v>187.47</v>
+      </c>
+      <c r="I66">
+        <v>187.47</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+      <c r="K66">
+        <v>3585</v>
+      </c>
+      <c r="L66" t="s">
+        <v>168</v>
+      </c>
+      <c r="M66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67">
+        <v>6193156</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>108874</v>
+      </c>
+      <c r="E67" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67">
+        <v>249.12</v>
+      </c>
+      <c r="I67">
+        <v>249.12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+      <c r="K67">
+        <v>3573</v>
+      </c>
+      <c r="L67" t="s">
+        <v>121</v>
+      </c>
+      <c r="M67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68">
+        <v>6175295</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>108874</v>
+      </c>
+      <c r="E68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68">
+        <v>140.5</v>
+      </c>
+      <c r="I68">
+        <v>140.5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+      <c r="K68">
+        <v>3547</v>
+      </c>
+      <c r="L68" t="s">
+        <v>125</v>
+      </c>
+      <c r="M68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69">
+        <v>6140501</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>108874</v>
+      </c>
+      <c r="E69" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69">
+        <v>764.59</v>
+      </c>
+      <c r="I69">
+        <v>764.59</v>
+      </c>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+      <c r="K69">
+        <v>3509</v>
+      </c>
+      <c r="L69" t="s">
+        <v>175</v>
+      </c>
+      <c r="M69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70">
+        <v>6094221</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>108874</v>
+      </c>
+      <c r="E70" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70">
+        <v>950.04</v>
+      </c>
+      <c r="I70">
+        <v>950.04</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+      <c r="K70" t="s">
+        <v>177</v>
+      </c>
+      <c r="L70" t="s">
+        <v>175</v>
+      </c>
+      <c r="M70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71">
+        <v>5803204</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>108874</v>
+      </c>
+      <c r="E71" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71">
+        <v>112.01</v>
+      </c>
+      <c r="I71">
+        <v>112.01</v>
+      </c>
+      <c r="J71" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71">
+        <v>3255</v>
+      </c>
+      <c r="L71" t="s">
+        <v>73</v>
+      </c>
+      <c r="M71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72">
+        <v>6067235</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>108874</v>
+      </c>
+      <c r="E72" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72">
+        <v>2819.01</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+      <c r="K72">
+        <v>3388</v>
+      </c>
+      <c r="L72" t="s">
+        <v>183</v>
+      </c>
+      <c r="M72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73">
+        <v>6052236</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>108874</v>
+      </c>
+      <c r="E73" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73">
+        <v>71.0</v>
+      </c>
+      <c r="I73">
+        <v>42114.96</v>
+      </c>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+      <c r="K73" t="s">
+        <v>64</v>
+      </c>
+      <c r="L73" t="s">
+        <v>183</v>
+      </c>
+      <c r="M73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74">
+        <v>6087530</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>108874</v>
+      </c>
+      <c r="E74" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74">
+        <v>104.5</v>
+      </c>
+      <c r="I74">
+        <v>104.5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+      <c r="K74">
+        <v>3480</v>
+      </c>
+      <c r="L74" t="s">
+        <v>142</v>
+      </c>
+      <c r="M74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75">
+        <v>6047745</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>108874</v>
+      </c>
+      <c r="E75" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75">
+        <v>130.77</v>
+      </c>
+      <c r="I75">
+        <v>130.77</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+      <c r="K75">
+        <v>3452</v>
+      </c>
+      <c r="L75" t="s">
+        <v>146</v>
+      </c>
+      <c r="M75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76">
+        <v>6016414</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>108874</v>
+      </c>
+      <c r="E76" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76">
+        <v>123.42</v>
+      </c>
+      <c r="I76">
+        <v>123.42</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+      <c r="K76">
+        <v>3436</v>
+      </c>
+      <c r="L76" t="s">
+        <v>192</v>
+      </c>
+      <c r="M76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77">
+        <v>5804045</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>108874</v>
+      </c>
+      <c r="E77" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" t="s">
+        <v>194</v>
+      </c>
+      <c r="I77">
+        <v>10377.0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77" t="s">
+        <v>195</v>
+      </c>
+      <c r="L77" t="s">
+        <v>192</v>
+      </c>
+      <c r="M77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78">
+        <v>5803204</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>108874</v>
+      </c>
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>198</v>
+      </c>
+      <c r="I78">
+        <v>72128.31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+      <c r="K78">
+        <v>3255</v>
+      </c>
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
